--- a/output/lead.all4way.xlsx
+++ b/output/lead.all4way.xlsx
@@ -1,320 +1,313 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisabethsilver/Documents/Seeing-is-Believing/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4785EA4B-D649-2E42-B1B6-7038EE4EEA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19180" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
-  <si>
-    <t>Predictor</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>partial_eta2</t>
-  </si>
-  <si>
-    <t>CI_90_partial_eta2</t>
-  </si>
-  <si>
-    <t>(Intercept)</t>
-  </si>
-  <si>
-    <t>11894.17</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>14349.05</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Image Condition</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>.286</t>
-  </si>
-  <si>
-    <t>[.00, .02]</t>
-  </si>
-  <si>
-    <t>Scientist Gender</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>.725</t>
-  </si>
-  <si>
-    <t>[.00, .01]</t>
-  </si>
-  <si>
-    <t>Participant Gender</t>
-  </si>
-  <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>1.61</t>
-  </si>
-  <si>
-    <t>.205</t>
-  </si>
-  <si>
-    <t>.01</t>
-  </si>
-  <si>
-    <t>[.00, .03]</t>
-  </si>
-  <si>
-    <t>Article Topic</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>.579</t>
-  </si>
-  <si>
-    <t>Image Condition X Scientist Gender</t>
-  </si>
-  <si>
-    <t>3.38</t>
-  </si>
-  <si>
-    <t>4.08</t>
-  </si>
-  <si>
-    <t>.044</t>
-  </si>
-  <si>
-    <t>[.00, .04]</t>
-  </si>
-  <si>
-    <t>Image Condition X Participant Gender</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>.596</t>
-  </si>
-  <si>
-    <t>Scientist Gender X Participant Gender</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>.802</t>
-  </si>
-  <si>
-    <t>Image Condition X Article Topic</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>.624</t>
-  </si>
-  <si>
-    <t>Scientist Gender X Article Topic</t>
-  </si>
-  <si>
-    <t>1.71</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>.358</t>
-  </si>
-  <si>
-    <t>Participant Gender X Article Topic</t>
-  </si>
-  <si>
-    <t>1.62</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>.378</t>
-  </si>
-  <si>
-    <t>Image Condition X Scientist Gender X Participant Gender</t>
-  </si>
-  <si>
-    <t>6.29</t>
-  </si>
-  <si>
-    <t>7.59</t>
-  </si>
-  <si>
-    <t>.006</t>
-  </si>
-  <si>
-    <t>.02</t>
-  </si>
-  <si>
-    <t>[.00, .06]</t>
-  </si>
-  <si>
-    <t>Image Condition X Scientist Gender X Article Topic</t>
-  </si>
-  <si>
-    <t>5.07</t>
-  </si>
-  <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>3.06</t>
-  </si>
-  <si>
-    <t>.048</t>
-  </si>
-  <si>
-    <t>[.00, .05]</t>
-  </si>
-  <si>
-    <t>Image Condition X Participant Gender X Article Topic</t>
-  </si>
-  <si>
-    <t>5.16</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>3.11</t>
-  </si>
-  <si>
-    <t>.046</t>
-  </si>
-  <si>
-    <t>Scientist Gender X Participant Gender X Article Topic</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>1.58</t>
-  </si>
-  <si>
-    <t>.208</t>
-  </si>
-  <si>
-    <t>Image Condition X Scientist Gender X Participant Gender X Article Topic</t>
-  </si>
-  <si>
-    <t>1.73</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>.354</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>256.14</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>&lt;.001</t>
-  </si>
-  <si>
-    <t>&lt;.01</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+  <si>
+    <t xml:space="preserve">Predictor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_eta2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI_90_partial_eta2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11894.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14349.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[.00, .02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientist Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[.00, .01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[.00, .03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article Topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Condition X Scientist Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[.00, .04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Condition X Participant Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientist Gender X Participant Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Condition X Article Topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientist Gender X Article Topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant Gender X Article Topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Condition X Scientist Gender X Participant Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[.00, .06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Condition X Scientist Gender X Article Topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[.00, .05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Condition X Participant Gender X Article Topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientist Gender X Participant Gender X Article Topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Condition X Scientist Gender X Participant Gender X Article Topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -350,15 +343,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -640,16 +624,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -692,433 +674,433 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
       <c r="H14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>